--- a/biology/Histoire de la zoologie et de la botanique/John_Lawrence_LeConte/John_Lawrence_LeConte.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/John_Lawrence_LeConte/John_Lawrence_LeConte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Lawrence Leconte ou LeConte est un entomologiste américain, né le 13 mai 1825 à New York et mort le 15 novembre 1883 à Philadelphie.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est le fils du naturaliste John Eatton LeConte (1784-1860) et de Mary Anne née Lawrence ; sa famille compte plusieurs générations de scientifiques. Il fait ses études à Mount Saint Mary College et obtient son titre de docteur en médecine en 1846 à l’école de médecine de New York. Durant ses études, il fait plusieurs voyages notamment dans les Montagnes Rocheuses et sur le Lac Supérieur. En 1848, il accompagne Louis Agassiz (1807-1873) dans un voyage au Lac Supérieur. De 1846 à 1861, il étudie la zoogéographie et l’entomologie. En 1849, LeConte part en Californie et explore le fleuve Colorado jusqu’en 1851. En 1852, il s’installe à Philadelphie où il réside jusqu’à sa mort. De 1861 à 1865, il est médecin volontaire dans l’armée américaine où il atteint le rang de lieutenant-colonel[1]. Il se marie le 10 janvier 1861 avec Helen Grier. Il devient, en 1865, médecin-inspecteur tout en se consacrant à la minéralogie, la géologie et à l’entomologie. De 1878 à 1883, il est chef de clinique à Philadelphie. Il fait plusieurs voyages scientifiques, notamment au Honduras en 1867, à Panama, en Europe, en Algérie et en Égypte[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le fils du naturaliste John Eatton LeConte (1784-1860) et de Mary Anne née Lawrence ; sa famille compte plusieurs générations de scientifiques. Il fait ses études à Mount Saint Mary College et obtient son titre de docteur en médecine en 1846 à l’école de médecine de New York. Durant ses études, il fait plusieurs voyages notamment dans les Montagnes Rocheuses et sur le Lac Supérieur. En 1848, il accompagne Louis Agassiz (1807-1873) dans un voyage au Lac Supérieur. De 1846 à 1861, il étudie la zoogéographie et l’entomologie. En 1849, LeConte part en Californie et explore le fleuve Colorado jusqu’en 1851. En 1852, il s’installe à Philadelphie où il réside jusqu’à sa mort. De 1861 à 1865, il est médecin volontaire dans l’armée américaine où il atteint le rang de lieutenant-colonel. Il se marie le 10 janvier 1861 avec Helen Grier. Il devient, en 1865, médecin-inspecteur tout en se consacrant à la minéralogie, la géologie et à l’entomologie. De 1878 à 1883, il est chef de clinique à Philadelphie. Il fait plusieurs voyages scientifiques, notamment au Honduras en 1867, à Panama, en Europe, en Algérie et en Égypte.
 Il préside l'Académie américaine des arts et des sciences en 1874 et est le vice-président de la Société américaine de philosophie de 1880 à 1883. LeConte participe à la fondation de la Société entomologique américaine et est membre de l'Académie nationale des sciences des États-Unis. Leconte est notamment l’auteur d’On the Classification of the Carabidae of the United States (1862-1873), dont une partie est cosignée avec George Henry Horn (1840-1897), New Species of North American Coleoptera (1866, 1873), The Rhynchophora of America North of Mexico (1876), et participe à Classification of the Coleoptera of North American (1883).
 </t>
         </is>
